--- a/git.xlsx
+++ b/git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>git init</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,12 +53,16 @@
     <t>git log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>已经提交了不合适的修改到版本库时，想要撤销本次提交，参考版本回退一节，不过前提是没有推送到远程库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,10 +78,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,10 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -491,16 +503,15 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="80.5" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="80.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +531,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -540,7 +551,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,7 +571,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -580,7 +591,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -600,7 +611,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -620,7 +631,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -640,7 +651,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,7 +671,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -680,8 +691,10 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -698,7 +711,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -716,7 +729,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -734,7 +747,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -752,7 +765,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -770,7 +783,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -788,7 +801,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -806,7 +819,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -824,7 +837,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -842,7 +855,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -860,7 +873,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -878,7 +891,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -896,7 +909,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -914,7 +927,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -932,7 +945,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -950,7 +963,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -968,7 +981,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
